--- a/Excel/图标.xlsx
+++ b/Excel/图标.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\TheLoop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93989392-7709-4427-9BCA-246002AC9A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F326E24-4C33-46C1-B476-DCFEA87B47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5784" yWindow="5016" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3936" yWindow="6096" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,137 @@
   </si>
   <si>
     <t>Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像 2</t>
+  </si>
+  <si>
+    <t>头像 3</t>
+  </si>
+  <si>
+    <t>头像 4</t>
+  </si>
+  <si>
+    <t>头像 5</t>
+  </si>
+  <si>
+    <t>头像 6</t>
+  </si>
+  <si>
+    <t>头像 7</t>
+  </si>
+  <si>
+    <t>头像 8</t>
+  </si>
+  <si>
+    <t>头像 9</t>
+  </si>
+  <si>
+    <t>头像 10</t>
+  </si>
+  <si>
+    <t>左手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手 2</t>
+  </si>
+  <si>
+    <t>左手 3</t>
+  </si>
+  <si>
+    <t>右手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手 2</t>
+  </si>
+  <si>
+    <t>右手 3</t>
+  </si>
+  <si>
+    <t>躯干 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躯干 2</t>
+  </si>
+  <si>
+    <t>躯干 3</t>
+  </si>
+  <si>
+    <t>发型 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发型 2</t>
+  </si>
+  <si>
+    <t>发型 3</t>
+  </si>
+  <si>
+    <t>左腿 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左腿 2</t>
+  </si>
+  <si>
+    <t>左腿 3</t>
+  </si>
+  <si>
+    <t>右腿 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右腿 2</t>
+  </si>
+  <si>
+    <t>右腿 3</t>
+  </si>
+  <si>
+    <t>脸 2</t>
+  </si>
+  <si>
+    <t>脸 3</t>
+  </si>
+  <si>
+    <t>脸 4</t>
+  </si>
+  <si>
+    <t>脸 5</t>
+  </si>
+  <si>
+    <t>脸 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,6 +538,9 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -421,6 +555,334 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
